--- a/302 NLP readability/302.02 readability check/rules.xlsx
+++ b/302 NLP readability/302.02 readability check/rules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\private_tools\python_archer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A9375B-4AB4-4DAE-9D90-C01BA888FB22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{41A9375B-4AB4-4DAE-9D90-C01BA888FB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{284705EB-B992-BB46-8867-641BA869E9FD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82BDFB53-7CF3-4288-9988-40F1AE7B6BB5}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rules!$A$1:$L$123</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="394">
   <si>
     <t>Avoid filler words</t>
   </si>
@@ -104,15 +105,9 @@
     <t>Expand to Have not</t>
   </si>
   <si>
-    <t>Avoid mid-sentence use of however. Better at the start of a sentence to flag where the issue is. Also check if you can avoid it completely.</t>
-  </si>
-  <si>
     <t>clear</t>
   </si>
   <si>
-    <t>Clear/Unclear may sound as if it was our fault, that we didn’t understand. Go back to the basics/facts or use language that puts the burden on them.</t>
-  </si>
-  <si>
     <t>inventorying</t>
   </si>
   <si>
@@ -876,13 +871,346 @@
   </si>
   <si>
     <t xml:space="preserve">have actioned </t>
+  </si>
+  <si>
+    <t>We think</t>
+  </si>
+  <si>
+    <t>We have concluded</t>
+  </si>
+  <si>
+    <t>Don’t</t>
+  </si>
+  <si>
+    <t>We note</t>
+  </si>
+  <si>
+    <t>Appear</t>
+  </si>
+  <si>
+    <t>Seem</t>
+  </si>
+  <si>
+    <t>Around</t>
+  </si>
+  <si>
+    <t>Doesn’t</t>
+  </si>
+  <si>
+    <t>Won’t</t>
+  </si>
+  <si>
+    <t>Wouldn’t</t>
+  </si>
+  <si>
+    <t>Can’t</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Inventorying</t>
+  </si>
+  <si>
+    <t>Clarity</t>
+  </si>
+  <si>
+    <t>Highlight</t>
+  </si>
+  <si>
+    <t>Might</t>
+  </si>
+  <si>
+    <t>A number</t>
+  </si>
+  <si>
+    <t>Numerous</t>
+  </si>
+  <si>
+    <t>Some</t>
+  </si>
+  <si>
+    <t>Few</t>
+  </si>
+  <si>
+    <t>Formally documented</t>
+  </si>
+  <si>
+    <t>Notwithstanding</t>
+  </si>
+  <si>
+    <t>Furthermore</t>
+  </si>
+  <si>
+    <t>Moreover</t>
+  </si>
+  <si>
+    <t>A degree</t>
+  </si>
+  <si>
+    <t>Not all</t>
+  </si>
+  <si>
+    <t>Several</t>
+  </si>
+  <si>
+    <t>Circa</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Lack of</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>Has not been documented</t>
+  </si>
+  <si>
+    <t>Whilst</t>
+  </si>
+  <si>
+    <t>Wish</t>
+  </si>
+  <si>
+    <t>Retain</t>
+  </si>
+  <si>
+    <t>In order</t>
+  </si>
+  <si>
+    <t>Therefore</t>
+  </si>
+  <si>
+    <t>In order to</t>
+  </si>
+  <si>
+    <t>Surrounding</t>
+  </si>
+  <si>
+    <t>Limited</t>
+  </si>
+  <si>
+    <t>Limited assurance</t>
+  </si>
+  <si>
+    <t>There needs to be</t>
+  </si>
+  <si>
+    <t>Strong focus</t>
+  </si>
+  <si>
+    <t>Regarding</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>Historically</t>
+  </si>
+  <si>
+    <t>Formally</t>
+  </si>
+  <si>
+    <t>Underpin</t>
+  </si>
+  <si>
+    <t>Ensure</t>
+  </si>
+  <si>
+    <t>Commence</t>
+  </si>
+  <si>
+    <t>In relation to</t>
+  </si>
+  <si>
+    <t>Governance</t>
+  </si>
+  <si>
+    <t>Sensitive</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Frequent</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>To action</t>
+  </si>
+  <si>
+    <t>Will action</t>
+  </si>
+  <si>
+    <t>Have action</t>
+  </si>
+  <si>
+    <t>Generally</t>
+  </si>
+  <si>
+    <t>Broadly</t>
+  </si>
+  <si>
+    <t>Typically</t>
+  </si>
+  <si>
+    <t>Even</t>
+  </si>
+  <si>
+    <t>Audit.+a review</t>
+  </si>
+  <si>
+    <t>Achieving</t>
+  </si>
+  <si>
+    <t>Deliver</t>
+  </si>
+  <si>
+    <t>Establish</t>
+  </si>
+  <si>
+    <t>Require</t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>Robust</t>
+  </si>
+  <si>
+    <t>Unable to</t>
+  </si>
+  <si>
+    <t>Not able</t>
+  </si>
+  <si>
+    <t>Not possible</t>
+  </si>
+  <si>
+    <t>Not been possible</t>
+  </si>
+  <si>
+    <t>Consider</t>
+  </si>
+  <si>
+    <t>Has not been</t>
+  </si>
+  <si>
+    <t>Coming months</t>
+  </si>
+  <si>
+    <t>Short.term</t>
+  </si>
+  <si>
+    <t>Medium.term</t>
+  </si>
+  <si>
+    <t>Long.term</t>
+  </si>
+  <si>
+    <t>Longer.term</t>
+  </si>
+  <si>
+    <t>Obtain</t>
+  </si>
+  <si>
+    <t>Identify</t>
+  </si>
+  <si>
+    <t>Notify</t>
+  </si>
+  <si>
+    <t>Prior to</t>
+  </si>
+  <si>
+    <t>Remain</t>
+  </si>
+  <si>
+    <t>Receive</t>
+  </si>
+  <si>
+    <t>Cease</t>
+  </si>
+  <si>
+    <t>Demonstrate</t>
+  </si>
+  <si>
+    <t>Collaborate</t>
+  </si>
+  <si>
+    <t>Understand</t>
+  </si>
+  <si>
+    <t>Understood</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Management indicated</t>
+  </si>
+  <si>
+    <t>Management stated</t>
+  </si>
+  <si>
+    <t>Mitigat</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Relevant</t>
+  </si>
+  <si>
+    <t>Appropriate</t>
+  </si>
+  <si>
+    <t>Policies</t>
+  </si>
+  <si>
+    <t>Appetite</t>
+  </si>
+  <si>
+    <t>Fillers</t>
+  </si>
+  <si>
+    <t>Subjective</t>
+  </si>
+  <si>
+    <t>Grammar</t>
+  </si>
+  <si>
+    <t>Informal</t>
+  </si>
+  <si>
+    <t>Jargon</t>
+  </si>
+  <si>
+    <t>Cliches</t>
+  </si>
+  <si>
+    <t>Wordiness</t>
+  </si>
+  <si>
+    <t>Avoid mid-sentence use of however. Better at the start of a sentence to flag where the issue is.</t>
+  </si>
+  <si>
+    <t>Clear/Unclear may sound as if it was our fault, that we didn’t understand because we are dumb. Go back to the basics/facts or use language that puts the burden on the auditee to demonstrate the controls/understanding.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1259,71 +1587,77 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEC396A-9CC7-4B64-8A26-79D348D660A6}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L139"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="E38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="12.42578125" style="1"/>
-    <col min="4" max="4" width="43.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="49.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="61" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="12.42578125" style="1"/>
+    <col min="1" max="3" width="12.375" style="1"/>
+    <col min="4" max="4" width="8.203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="5.24609375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.70703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.91796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.31640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.36328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.78125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="60.9375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="12.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -1339,7 +1673,7 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
@@ -1348,10 +1682,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1378,10 +1718,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1399,7 +1745,7 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1408,9 +1754,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
@@ -1438,9 +1790,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>4</v>
@@ -1468,8 +1826,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1498,8 +1862,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1528,12 +1898,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -1549,18 +1925,24 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>8</v>
@@ -1588,9 +1970,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>10</v>
@@ -1618,9 +2006,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
@@ -1648,9 +2042,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>13</v>
@@ -1678,12 +2078,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="D14" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
@@ -1699,21 +2105,27 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="D15" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
@@ -1729,7 +2141,7 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -1738,12 +2150,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>285</v>
+      </c>
       <c r="D16" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -1759,7 +2177,7 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -1768,12 +2186,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="D17" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
@@ -1789,7 +2213,7 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -1798,12 +2222,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="D18" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -1819,7 +2249,7 @@
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -1828,12 +2258,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="D19" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
@@ -1849,7 +2285,7 @@
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -1858,9 +2294,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>20</v>
@@ -1888,12 +2330,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="D21" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>1</v>
@@ -1909,21 +2357,27 @@
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K21" s="2">
         <v>2</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="D22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
@@ -1939,21 +2393,27 @@
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="D23" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23" s="2" t="b">
         <v>0</v>
@@ -1969,21 +2429,27 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="D24" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
@@ -1999,21 +2465,27 @@
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="D25" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
@@ -2029,21 +2501,27 @@
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="D26" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
@@ -2059,21 +2537,27 @@
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="D27" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
@@ -2089,21 +2573,27 @@
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="D28" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
@@ -2119,21 +2609,27 @@
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="D29" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="b">
         <v>0</v>
@@ -2149,21 +2645,27 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="D30" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="b">
         <v>0</v>
@@ -2179,21 +2681,27 @@
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K30" s="2">
         <v>1</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="D31" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
@@ -2209,21 +2717,27 @@
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="D32" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
@@ -2239,21 +2753,27 @@
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32" s="2">
         <v>1</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>300</v>
+      </c>
       <c r="D33" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
@@ -2269,21 +2789,27 @@
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="D34" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="b">
         <v>0</v>
@@ -2299,21 +2825,27 @@
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="D35" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E35" s="2" t="b">
         <v>0</v>
@@ -2329,21 +2861,27 @@
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
+      <c r="B36" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="D36" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="b">
         <v>0</v>
@@ -2359,21 +2897,27 @@
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="D37" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E37" s="2" t="b">
         <v>0</v>
@@ -2389,21 +2933,27 @@
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
+      <c r="B38" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="D38" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
@@ -2419,21 +2969,27 @@
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
+      <c r="B39" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="D39" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
@@ -2449,21 +3005,27 @@
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K39" s="2">
         <v>1</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
+      <c r="B40" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="D40" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
@@ -2479,21 +3041,27 @@
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="D41" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E41" s="2" t="b">
         <v>0</v>
@@ -2509,21 +3077,24 @@
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K41" s="2">
         <v>1</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
+      <c r="C42" s="5" t="s">
+        <v>309</v>
+      </c>
       <c r="D42" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E42" s="2" t="b">
         <v>0</v>
@@ -2539,21 +3110,24 @@
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K42" s="2">
         <v>1</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
+      <c r="C43" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="D43" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
@@ -2569,21 +3143,24 @@
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K43" s="2">
         <v>1</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
+      <c r="C44" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="D44" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E44" s="2" t="b">
         <v>0</v>
@@ -2599,21 +3176,24 @@
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K44" s="2">
         <v>1</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
+      <c r="C45" s="5" t="s">
+        <v>312</v>
+      </c>
       <c r="D45" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E45" s="2" t="b">
         <v>0</v>
@@ -2629,21 +3209,24 @@
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K45" s="2">
         <v>1</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
+      <c r="C46" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D46" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E46" s="2" t="b">
         <v>0</v>
@@ -2659,7 +3242,7 @@
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K46" s="2">
         <v>1</v>
@@ -2668,12 +3251,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
+      <c r="C47" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="D47" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
@@ -2689,21 +3275,24 @@
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K47" s="2">
         <v>1</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
+      <c r="C48" s="5" t="s">
+        <v>314</v>
+      </c>
       <c r="D48" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="b">
         <v>0</v>
@@ -2719,21 +3308,24 @@
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K48" s="2">
         <v>1</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
+      <c r="C49" s="5" t="s">
+        <v>315</v>
+      </c>
       <c r="D49" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2" t="b">
         <v>0</v>
@@ -2749,21 +3341,24 @@
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K49" s="2">
         <v>1</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
+      <c r="C50" s="5" t="s">
+        <v>316</v>
+      </c>
       <c r="D50" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="b">
         <v>0</v>
@@ -2779,21 +3374,24 @@
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K50" s="2">
         <v>1</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
+      <c r="C51" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="D51" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E51" s="2" t="b">
         <v>1</v>
@@ -2809,21 +3407,24 @@
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K51" s="2">
         <v>1</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
+      <c r="C52" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="D52" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>1</v>
@@ -2839,21 +3440,24 @@
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K52" s="2">
         <v>1</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
+      <c r="C53" s="5" t="s">
+        <v>317</v>
+      </c>
       <c r="D53" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="b">
         <v>1</v>
@@ -2869,21 +3473,24 @@
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K53" s="2">
         <v>1</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
+      <c r="C54" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="D54" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2" t="b">
         <v>0</v>
@@ -2899,21 +3506,24 @@
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K54" s="2">
         <v>1</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
+      <c r="C55" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="D55" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="b">
         <v>1</v>
@@ -2929,21 +3539,24 @@
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K55" s="2">
         <v>1</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
+      <c r="C56" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="D56" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="b">
         <v>0</v>
@@ -2959,21 +3572,24 @@
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K56" s="2">
         <v>1</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
+      <c r="C57" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="D57" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="b">
         <v>0</v>
@@ -2989,21 +3605,24 @@
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K57" s="2">
         <v>1</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
+      <c r="C58" s="5" t="s">
+        <v>321</v>
+      </c>
       <c r="D58" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="b">
         <v>0</v>
@@ -3019,21 +3638,24 @@
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K58" s="2">
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
+      <c r="C59" s="5" t="s">
+        <v>322</v>
+      </c>
       <c r="D59" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="b">
         <v>0</v>
@@ -3049,21 +3671,24 @@
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K59" s="2">
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
+      <c r="C60" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="D60" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E60" s="2" t="b">
         <v>1</v>
@@ -3079,21 +3704,24 @@
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K60" s="2">
         <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
+      <c r="C61" s="5" t="s">
+        <v>323</v>
+      </c>
       <c r="D61" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="b">
         <v>0</v>
@@ -3109,21 +3737,24 @@
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K61" s="2">
         <v>1</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
+      <c r="C62" s="5" t="s">
+        <v>324</v>
+      </c>
       <c r="D62" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="b">
         <v>0</v>
@@ -3139,21 +3770,24 @@
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K62" s="2">
         <v>1</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
+      <c r="C63" s="5" t="s">
+        <v>325</v>
+      </c>
       <c r="D63" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="b">
         <v>0</v>
@@ -3169,21 +3803,24 @@
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K63" s="2">
         <v>1</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
+      <c r="C64" s="5" t="s">
+        <v>326</v>
+      </c>
       <c r="D64" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="b">
         <v>0</v>
@@ -3199,21 +3836,24 @@
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K64" s="2">
         <v>1</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
+      <c r="C65" s="5" t="s">
+        <v>327</v>
+      </c>
       <c r="D65" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="b">
         <v>0</v>
@@ -3229,21 +3869,24 @@
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K65" s="2">
         <v>1</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
+      <c r="C66" s="5" t="s">
+        <v>328</v>
+      </c>
       <c r="D66" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="b">
         <v>0</v>
@@ -3259,21 +3902,24 @@
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K66" s="2">
         <v>1</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
+      <c r="C67" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="D67" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="b">
         <v>0</v>
@@ -3289,21 +3935,24 @@
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K67" s="2">
         <v>1</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
+      <c r="C68" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="D68" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="b">
         <v>0</v>
@@ -3319,21 +3968,24 @@
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K68" s="2">
         <v>1</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
+      <c r="C69" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="D69" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E69" s="2" t="b">
         <v>0</v>
@@ -3349,21 +4001,24 @@
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K69" s="2">
         <v>1</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
+      <c r="C70" s="5" t="s">
+        <v>331</v>
+      </c>
       <c r="D70" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="b">
         <v>0</v>
@@ -3379,21 +4034,24 @@
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K70" s="2">
         <v>1</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
+      <c r="C71" s="5" t="s">
+        <v>332</v>
+      </c>
       <c r="D71" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E71" s="2" t="b">
         <v>0</v>
@@ -3409,21 +4067,24 @@
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K71" s="2">
         <v>1</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
+      <c r="C72" s="5" t="s">
+        <v>333</v>
+      </c>
       <c r="D72" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E72" s="2" t="b">
         <v>0</v>
@@ -3439,21 +4100,24 @@
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K72" s="2">
         <v>1</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
+      <c r="C73" s="5" t="s">
+        <v>334</v>
+      </c>
       <c r="D73" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="b">
         <v>0</v>
@@ -3469,21 +4133,24 @@
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K73" s="2">
         <v>1</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
+      <c r="C74" s="5" t="s">
+        <v>335</v>
+      </c>
       <c r="D74" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E74" s="2" t="b">
         <v>1</v>
@@ -3499,21 +4166,24 @@
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K74" s="2">
         <v>1</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
+      <c r="C75" s="5" t="s">
+        <v>336</v>
+      </c>
       <c r="D75" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E75" s="2" t="b">
         <v>1</v>
@@ -3529,21 +4199,24 @@
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K75" s="2">
         <v>1</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
+      <c r="C76" s="5" t="s">
+        <v>337</v>
+      </c>
       <c r="D76" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E76" s="2" t="b">
         <v>1</v>
@@ -3559,21 +4232,24 @@
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K76" s="2">
         <v>1</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
+      <c r="C77" s="5" t="s">
+        <v>338</v>
+      </c>
       <c r="D77" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="b">
         <v>0</v>
@@ -3589,21 +4265,24 @@
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K77" s="2">
         <v>1</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
+      <c r="C78" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="D78" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="b">
         <v>0</v>
@@ -3619,21 +4298,24 @@
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K78" s="2">
         <v>1</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
+      <c r="C79" s="5" t="s">
+        <v>340</v>
+      </c>
       <c r="D79" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="b">
         <v>0</v>
@@ -3649,21 +4331,27 @@
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K79" s="2">
         <v>1</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
+      <c r="B80" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>341</v>
+      </c>
       <c r="D80" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="b">
         <v>0</v>
@@ -3679,21 +4367,27 @@
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K80" s="2">
         <v>1</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
+      <c r="B81" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="D81" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E81" s="2" t="b">
         <v>0</v>
@@ -3709,21 +4403,27 @@
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K81" s="2">
         <v>3</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
+      <c r="B82" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="D82" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E82" s="2" t="b">
         <v>0</v>
@@ -3739,21 +4439,27 @@
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K82" s="2">
         <v>1</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
+      <c r="B83" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="D83" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="b">
         <v>0</v>
@@ -3769,21 +4475,27 @@
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K83" s="2">
         <v>1</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
+      <c r="B84" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="D84" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="b">
         <v>0</v>
@@ -3799,21 +4511,24 @@
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K84" s="2">
         <v>1</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
+      <c r="C85" s="5" t="s">
+        <v>342</v>
+      </c>
       <c r="D85" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E85" s="2" t="b">
         <v>0</v>
@@ -3829,21 +4544,24 @@
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K85" s="2">
         <v>1</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
+      <c r="C86" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="D86" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="b">
         <v>0</v>
@@ -3859,21 +4577,27 @@
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K86" s="2">
         <v>1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
+      <c r="B87" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>344</v>
+      </c>
       <c r="D87" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="b">
         <v>0</v>
@@ -3889,21 +4613,27 @@
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K87" s="2">
         <v>1</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
+      <c r="B88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="D88" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="b">
         <v>0</v>
@@ -3919,21 +4649,27 @@
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K88" s="2">
         <v>1</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
+      <c r="B89" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="D89" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="b">
         <v>0</v>
@@ -3949,21 +4685,24 @@
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K89" s="2">
         <v>1</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
+      <c r="C90" s="5" t="s">
+        <v>347</v>
+      </c>
       <c r="D90" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="b">
         <v>0</v>
@@ -3979,21 +4718,27 @@
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K90" s="2">
         <v>1</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
+      <c r="B91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="D91" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E91" s="2" t="b">
         <v>0</v>
@@ -4009,21 +4754,27 @@
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K91" s="2">
         <v>1</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
+      <c r="B92" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>349</v>
+      </c>
       <c r="D92" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="b">
         <v>0</v>
@@ -4039,21 +4790,27 @@
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K92" s="2">
         <v>1</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
+      <c r="B93" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>350</v>
+      </c>
       <c r="D93" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E93" s="2" t="b">
         <v>0</v>
@@ -4069,21 +4826,27 @@
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K93" s="2">
         <v>1</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
+      <c r="B94" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="D94" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E94" s="2" t="b">
         <v>0</v>
@@ -4099,21 +4862,24 @@
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K94" s="2">
         <v>1</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
+      <c r="C95" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="D95" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E95" s="2" t="b">
         <v>0</v>
@@ -4129,21 +4895,24 @@
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K95" s="2">
         <v>1</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
+      <c r="C96" s="5" t="s">
+        <v>352</v>
+      </c>
       <c r="D96" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E96" s="2" t="b">
         <v>0</v>
@@ -4159,21 +4928,24 @@
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K96" s="2">
         <v>1</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
+      <c r="C97" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="D97" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E97" s="2" t="b">
         <v>0</v>
@@ -4189,21 +4961,24 @@
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K97" s="2">
         <v>1</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
+      <c r="C98" s="5" t="s">
+        <v>354</v>
+      </c>
       <c r="D98" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E98" s="2" t="b">
         <v>0</v>
@@ -4219,21 +4994,24 @@
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K98" s="2">
         <v>1</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
+      <c r="C99" s="5" t="s">
+        <v>355</v>
+      </c>
       <c r="D99" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2" t="b">
         <v>0</v>
@@ -4249,21 +5027,24 @@
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K99" s="2">
         <v>1</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
+      <c r="C100" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="D100" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E100" s="2" t="b">
         <v>0</v>
@@ -4279,21 +5060,24 @@
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K100" s="2">
         <v>2</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
+      <c r="C101" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="D101" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E101" s="2" t="b">
         <v>0</v>
@@ -4309,21 +5093,24 @@
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K101" s="2">
         <v>2</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
+      <c r="C102" s="5" t="s">
+        <v>358</v>
+      </c>
       <c r="D102" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E102" s="2" t="b">
         <v>0</v>
@@ -4339,21 +5126,24 @@
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K102" s="2">
         <v>2</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
+      <c r="C103" s="5" t="s">
+        <v>359</v>
+      </c>
       <c r="D103" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E103" s="2" t="b">
         <v>0</v>
@@ -4369,21 +5159,24 @@
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K103" s="2">
         <v>1</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
+      <c r="C104" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="D104" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E104" s="2" t="b">
         <v>0</v>
@@ -4399,21 +5192,24 @@
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K104" s="2">
         <v>4</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
+      <c r="C105" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="D105" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E105" s="2" t="b">
         <v>0</v>
@@ -4429,21 +5225,24 @@
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K105" s="2">
         <v>1</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
+      <c r="C106" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="D106" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E106" s="2" t="b">
         <v>0</v>
@@ -4459,21 +5258,24 @@
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K106" s="2">
         <v>1</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
+      <c r="C107" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="D107" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E107" s="2" t="b">
         <v>0</v>
@@ -4489,21 +5291,24 @@
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K107" s="2">
         <v>1</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
+      <c r="C108" s="5" t="s">
+        <v>363</v>
+      </c>
       <c r="D108" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E108" s="2" t="b">
         <v>0</v>
@@ -4519,21 +5324,24 @@
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K108" s="2">
         <v>1</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
+      <c r="C109" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="D109" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E109" s="2" t="b">
         <v>0</v>
@@ -4549,21 +5357,24 @@
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K109" s="2">
         <v>1</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
+      <c r="C110" s="5" t="s">
+        <v>365</v>
+      </c>
       <c r="D110" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E110" s="2" t="b">
         <v>0</v>
@@ -4579,21 +5390,24 @@
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K110" s="2">
         <v>1</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
+      <c r="C111" s="5" t="s">
+        <v>366</v>
+      </c>
       <c r="D111" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E111" s="2" t="b">
         <v>0</v>
@@ -4609,21 +5423,24 @@
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K111" s="2">
         <v>1</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
+      <c r="C112" s="5" t="s">
+        <v>367</v>
+      </c>
       <c r="D112" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E112" s="2" t="b">
         <v>0</v>
@@ -4639,21 +5456,24 @@
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K112" s="2">
         <v>1</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
+      <c r="C113" s="5" t="s">
+        <v>368</v>
+      </c>
       <c r="D113" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E113" s="2" t="b">
         <v>0</v>
@@ -4669,21 +5489,24 @@
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K113" s="2">
         <v>1</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
+      <c r="C114" s="5" t="s">
+        <v>369</v>
+      </c>
       <c r="D114" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E114" s="2" t="b">
         <v>0</v>
@@ -4699,21 +5522,24 @@
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K114" s="2">
         <v>1</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
+      <c r="C115" s="5" t="s">
+        <v>370</v>
+      </c>
       <c r="D115" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E115" s="2" t="b">
         <v>0</v>
@@ -4729,21 +5555,24 @@
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K115" s="2">
         <v>1</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
+      <c r="C116" s="5" t="s">
+        <v>371</v>
+      </c>
       <c r="D116" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E116" s="2" t="b">
         <v>0</v>
@@ -4759,21 +5588,24 @@
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K116" s="2">
         <v>1</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
+      <c r="C117" s="5" t="s">
+        <v>372</v>
+      </c>
       <c r="D117" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E117" s="2" t="b">
         <v>0</v>
@@ -4789,21 +5621,24 @@
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K117" s="2">
         <v>1</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
+      <c r="C118" s="5" t="s">
+        <v>373</v>
+      </c>
       <c r="D118" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E118" s="2" t="b">
         <v>0</v>
@@ -4819,21 +5654,24 @@
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K118" s="2">
         <v>1</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
+      <c r="C119" s="5" t="s">
+        <v>374</v>
+      </c>
       <c r="D119" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E119" s="2" t="b">
         <v>0</v>
@@ -4849,21 +5687,24 @@
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K119" s="2">
         <v>1</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
+      <c r="C120" s="5" t="s">
+        <v>375</v>
+      </c>
       <c r="D120" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E120" s="2" t="b">
         <v>0</v>
@@ -4879,21 +5720,24 @@
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K120" s="2">
         <v>1</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
+      <c r="C121" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="D121" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E121" s="2" t="b">
         <v>0</v>
@@ -4909,21 +5753,24 @@
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K121" s="2">
         <v>1</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
+      <c r="C122" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="D122" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E122" s="2" t="b">
         <v>0</v>
@@ -4939,21 +5786,24 @@
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K122" s="2">
         <v>1</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
+      <c r="C123" s="5" t="s">
+        <v>378</v>
+      </c>
       <c r="D123" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E123" s="2" t="b">
         <v>0</v>
@@ -4969,21 +5819,24 @@
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K123" s="2">
         <v>1</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
+      <c r="C124" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="D124" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E124" s="2" t="b">
         <v>0</v>
@@ -4999,21 +5852,24 @@
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K124" s="2">
         <v>1</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
+      <c r="C125" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="D125" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E125" s="2" t="b">
         <v>0</v>
@@ -5029,21 +5885,24 @@
       </c>
       <c r="I125" s="2"/>
       <c r="J125" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K125" s="2">
         <v>1</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
+      <c r="C126" s="6" t="s">
+        <v>251</v>
+      </c>
       <c r="D126" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E126" s="2" t="b">
         <v>0</v>
@@ -5059,21 +5918,27 @@
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K126" s="2">
         <v>1</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
+      <c r="B127" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="D127" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E127" s="2" t="b">
         <v>0</v>
@@ -5089,21 +5954,27 @@
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K127" s="2">
         <v>1</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
+      <c r="B128" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>257</v>
+      </c>
       <c r="D128" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E128" s="2" t="b">
         <v>0</v>
@@ -5119,21 +5990,27 @@
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K128" s="2">
         <v>1</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
+      <c r="B129" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>256</v>
+      </c>
       <c r="D129" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E129" s="2" t="b">
         <v>0</v>
@@ -5149,21 +6026,27 @@
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K129" s="2">
         <v>1</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
+      <c r="B130" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="D130" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E130" s="2" t="b">
         <v>0</v>
@@ -5179,21 +6062,27 @@
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K130" s="2">
         <v>1</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
+      <c r="B131" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>260</v>
+      </c>
       <c r="D131" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E131" s="2" t="b">
         <v>0</v>
@@ -5209,21 +6098,27 @@
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K131" s="2">
         <v>1</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
+      <c r="B132" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>264</v>
+      </c>
       <c r="D132" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E132" s="2" t="b">
         <v>0</v>
@@ -5239,21 +6134,27 @@
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K132" s="2">
         <v>1</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
+      <c r="B133" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="D133" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E133" s="2" t="b">
         <v>0</v>
@@ -5269,21 +6170,24 @@
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K133" s="2">
         <v>1</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
+      <c r="C134" s="6" t="s">
+        <v>270</v>
+      </c>
       <c r="D134" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E134" s="2" t="b">
         <v>0</v>
@@ -5299,21 +6203,24 @@
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K134" s="2">
         <v>1</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
+      <c r="C135" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="D135" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E135" s="2" t="b">
         <v>0</v>
@@ -5329,21 +6236,24 @@
       </c>
       <c r="I135" s="2"/>
       <c r="J135" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K135" s="2">
         <v>1</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
+      <c r="C136" s="6" t="s">
+        <v>268</v>
+      </c>
       <c r="D136" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E136" s="2" t="b">
         <v>0</v>
@@ -5359,21 +6269,24 @@
       </c>
       <c r="I136" s="2"/>
       <c r="J136" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K136" s="2">
         <v>1</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
+      <c r="C137" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="D137" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E137" s="2" t="b">
         <v>0</v>
@@ -5389,21 +6302,27 @@
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K137" s="2">
+        <v>1</v>
+      </c>
+      <c r="L137" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="K137" s="2">
-        <v>1</v>
-      </c>
-      <c r="L137" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
+      <c r="B138" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>272</v>
+      </c>
       <c r="D138" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E138" s="2" t="b">
         <v>0</v>
@@ -5419,21 +6338,27 @@
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K138" s="2">
         <v>1</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
+      <c r="B139" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>379</v>
+      </c>
       <c r="D139" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E139" s="2" t="b">
         <v>0</v>
@@ -5449,14 +6374,32 @@
       </c>
       <c r="I139" s="2"/>
       <c r="J139" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K139" s="2">
         <v>1</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>278</v>
-      </c>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C140" s="8"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C141" s="8"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C142" s="8"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C143" s="8"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C144" s="8"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L123" xr:uid="{4A375584-6D4B-420D-A35E-CFC7E5D7D6F1}"/>
